--- a/Question_Set2/Software skills/Wireshark.xlsx
+++ b/Question_Set2/Software skills/Wireshark.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a system administrator in a finance company, with a primary task of keeping track of incoming traffic to your database server. To analyze the network protocols, you installed Wireshark on a Linux-based machine. When you tried to launch the application, you encountered the error shown below.Which of the following commands should you execute to fix the problem?', 'ques_type': 2, 'options': ['sudo dpkg-reconfigure wireshark-common', 'sudo apt-reconfigure wireshark-common', 'sudo apt-get --reconfigure wireshark-common', 'systemctl reload wireshark.service'], 'score': 'sudo dpkg-reconfigure wireshark-common'}, {'title': 'You are a security specialist in a finance company. You must dump full-sized packets on the public interface enp0s3 in a file that will be used for analysis in Wireshark to display the retransmitted packets.Which of the following filters should you apply to analyze the TCP retransmitted packets?', 'ques_type': 2, 'options': ['tcp.analysis.flags', 'tcp.analysis.flags==1', 'Tcp.analysis.flags eq 1', 'tcp.flags.fin==0'], 'score': 'tcp.analysis.flags'}, {'title': 'As a System Security specialist, you are analyzing the traffic captured using Wireshark. You are interested in web traffic for the website testgorilla.com, and you want to follow an HTTP stream for detailed information.Which of the following filters should you apply to display only the web traffic destined for testgorilla.com so you can follow the HTTP stream?', 'ques_type': 2, 'options': ['http.host==testgorilla.com', 'http.host=testgorilla.com', 'https.host==testgorilla.com', 'https.host=testgorilla.com'], 'score': 'http.host==testgorilla.com'}, {'title': 'A car insurance company hired you to troubleshoot their SIP-related issues (Session Initiation Protocol). After capturing a reasonable amount of packets, you build a profile displaying the SIP response time with a blue background. The screenshot below shows your profile. Which of the following filters should you use to display the SIP response time with a blue background?', 'ques_type': 2, 'options': ['sip.response-time', 'sip.response-time = 1', 'TCP.response-time', 'TCP.response-time eq 1'], 'score': 'sip.response-time'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a system administrator in a finance company, with a primary task of keeping track of incoming traffic to your database server. To analyze the network protocols, you installed Wireshark on a Linux-based machine. When you tried to launch the application, you encountered the error shown below.Which of the following commands should you execute to fix the problem?",
+        "ques_type": 2,
+        "options": [
+            "sudo dpkg-reconfigure wireshark-common",
+            "sudo apt-reconfigure wireshark-common",
+            "sudo apt-get --reconfigure wireshark-common",
+            "systemctl reload wireshark.service"
+        ],
+        "score": "sudo dpkg-reconfigure wireshark-common"
+    },
+    {
+        "title": "You are a security specialist in a finance company. You must dump full-sized packets on the public interface enp0s3 in a file that will be used for analysis in Wireshark to display the retransmitted packets.Which of the following filters should you apply to analyze the TCP retransmitted packets?",
+        "ques_type": 2,
+        "options": [
+            "tcp.analysis.flags",
+            "tcp.analysis.flags==1",
+            "Tcp.analysis.flags eq 1",
+            "tcp.flags.fin==0"
+        ],
+        "score": "tcp.analysis.flags"
+    },
+    {
+        "title": "As a System Security specialist, you are analyzing the traffic captured using Wireshark. You are interested in web traffic for the website testgorilla.com, and you want to follow an HTTP stream for detailed information.Which of the following filters should you apply to display only the web traffic destined for testgorilla.com so you can follow the HTTP stream?",
+        "ques_type": 2,
+        "options": [
+            "http.host==testgorilla.com",
+            "http.host=testgorilla.com",
+            "https.host==testgorilla.com",
+            "https.host=testgorilla.com"
+        ],
+        "score": "http.host==testgorilla.com"
+    },
+    {
+        "title": "A car insurance company hired you to troubleshoot their SIP-related issues (Session Initiation Protocol). After capturing a reasonable amount of packets, you build a profile displaying the SIP response time with a blue background. The screenshot below shows your profile. Which of the following filters should you use to display the SIP response time with a blue background?",
+        "ques_type": 2,
+        "options": [
+            "sip.response-time",
+            "sip.response-time = 1",
+            "TCP.response-time",
+            "TCP.response-time eq 1"
+        ],
+        "score": "sip.response-time"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
